--- a/private/data/sm_modele_BOLC_v1.xlsx
+++ b/private/data/sm_modele_BOLC_v1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="124">
   <si>
     <t xml:space="preserve">Modele import reconditionneur pro (format xls)</t>
   </si>
@@ -88,76 +88,40 @@
     <t xml:space="preserve">Catégorie</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lot 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMARTPHONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iPhone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OS X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Go</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blanc</t>
+    <t xml:space="preserve">erreur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document.getElementById("</t>
+  </si>
+  <si>
+    <t xml:space="preserve">").value =  config["</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"]; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">retour["</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"] = document.getElementById("</t>
+  </si>
+  <si>
+    <t xml:space="preserve">").value; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° ligne entete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ligneentete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">colnumlot</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">document.getElementById("</t>
-  </si>
-  <si>
-    <t xml:space="preserve">").value =  config["</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"]; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">retour["</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"] = document.getElementById("</t>
-  </si>
-  <si>
-    <t xml:space="preserve">").value; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° ligne entete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ligneentete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">colnumlot</t>
   </si>
   <si>
     <t xml:space="preserve">colidentifiantunique</t>
@@ -635,26 +599,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T4" activeCellId="0" sqref="T4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="13" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="13" style="1" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -665,6 +629,34 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -727,66 +719,12 @@
       <c r="T2" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>127973784</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>355000000000000</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="1"/>
+      <c r="F3" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -812,38 +750,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16198" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16198" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="0"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -880,30 +818,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E1" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C2" s="7" t="n">
         <v>1</v>
@@ -922,10 +860,10 @@
       </c>
       <c r="G2" s="1" t="str">
         <f aca="false">F2&amp;B2&amp;$G$1</f>
-        <v>document.getElementById("ligneentete").value =  config["ligneentete"]; </v>
+        <v>document.getElementById("ligneentete").value =  config["ligneentete"];</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="str">
         <f aca="false">$I$1&amp;B2</f>
@@ -937,7 +875,7 @@
       </c>
       <c r="K2" s="1" t="str">
         <f aca="false">J2&amp;B2&amp;$K$1</f>
-        <v>retour["ligneentete"] = document.getElementById("ligneentete").value; </v>
+        <v>retour["ligneentete"] = document.getElementById("ligneentete").value;</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="str">
         <f aca="false">""""&amp;B3&amp;""" : """&amp;A3&amp;""","</f>
@@ -964,10 +902,10 @@
       </c>
       <c r="G3" s="1" t="str">
         <f aca="false">F3&amp;B3&amp;$G$1</f>
-        <v>document.getElementById("colnumlot").value =  config["colnumlot"]; </v>
+        <v>document.getElementById("colnumlot").value =  config["colnumlot"];</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="str">
         <f aca="false">$I$1&amp;B3</f>
@@ -979,7 +917,7 @@
       </c>
       <c r="K3" s="1" t="str">
         <f aca="false">J3&amp;B3&amp;$K$1</f>
-        <v>retour["colnumlot"] = document.getElementById("colnumlot").value; </v>
+        <v>retour["colnumlot"] = document.getElementById("colnumlot").value;</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,10 +925,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7" t="str">
         <f aca="false">""""&amp;B4&amp;""" : """&amp;A4&amp;""","</f>
@@ -1006,10 +944,10 @@
       </c>
       <c r="G4" s="1" t="str">
         <f aca="false">F4&amp;B4&amp;$G$1</f>
-        <v>document.getElementById("colidentifiantunique").value =  config["colidentifiantunique"]; </v>
+        <v>document.getElementById("colidentifiantunique").value =  config["colidentifiantunique"];</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="str">
         <f aca="false">$I$1&amp;B4</f>
@@ -1021,7 +959,7 @@
       </c>
       <c r="K4" s="1" t="str">
         <f aca="false">J4&amp;B4&amp;$K$1</f>
-        <v>retour["colidentifiantunique"] = document.getElementById("colidentifiantunique").value; </v>
+        <v>retour["colidentifiantunique"] = document.getElementById("colidentifiantunique").value;</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,10 +967,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">""""&amp;B5&amp;""" : """&amp;A5&amp;""","</f>
@@ -1048,10 +986,10 @@
       </c>
       <c r="G5" s="1" t="str">
         <f aca="false">F5&amp;B5&amp;$G$1</f>
-        <v>document.getElementById("coltypemateriel").value =  config["coltypemateriel"]; </v>
+        <v>document.getElementById("coltypemateriel").value =  config["coltypemateriel"];</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="str">
         <f aca="false">$I$1&amp;B5</f>
@@ -1063,7 +1001,7 @@
       </c>
       <c r="K5" s="1" t="str">
         <f aca="false">J5&amp;B5&amp;$K$1</f>
-        <v>retour["coltypemateriel"] = document.getElementById("coltypemateriel").value; </v>
+        <v>retour["coltypemateriel"] = document.getElementById("coltypemateriel").value;</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,10 +1009,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7" t="str">
         <f aca="false">""""&amp;B6&amp;""" : """&amp;A6&amp;""","</f>
@@ -1090,10 +1028,10 @@
       </c>
       <c r="G6" s="1" t="str">
         <f aca="false">F6&amp;B6&amp;$G$1</f>
-        <v>document.getElementById("colconstructeur").value =  config["colconstructeur"]; </v>
+        <v>document.getElementById("colconstructeur").value =  config["colconstructeur"];</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1" t="str">
         <f aca="false">$I$1&amp;B6</f>
@@ -1105,7 +1043,7 @@
       </c>
       <c r="K6" s="1" t="str">
         <f aca="false">J6&amp;B6&amp;$K$1</f>
-        <v>retour["colconstructeur"] = document.getElementById("colconstructeur").value; </v>
+        <v>retour["colconstructeur"] = document.getElementById("colconstructeur").value;</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1113,10 +1051,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7" t="str">
         <f aca="false">""""&amp;B7&amp;""" : """&amp;A7&amp;""","</f>
@@ -1132,10 +1070,10 @@
       </c>
       <c r="G7" s="1" t="str">
         <f aca="false">F7&amp;B7&amp;$G$1</f>
-        <v>document.getElementById("colmodel").value =  config["colmodel"]; </v>
+        <v>document.getElementById("colmodel").value =  config["colmodel"];</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="str">
         <f aca="false">$I$1&amp;B7</f>
@@ -1147,7 +1085,7 @@
       </c>
       <c r="K7" s="1" t="str">
         <f aca="false">J7&amp;B7&amp;$K$1</f>
-        <v>retour["colmodel"] = document.getElementById("colmodel").value; </v>
+        <v>retour["colmodel"] = document.getElementById("colmodel").value;</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,10 +1093,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7" t="str">
         <f aca="false">""""&amp;B8&amp;""" : """&amp;A8&amp;""","</f>
@@ -1174,10 +1112,10 @@
       </c>
       <c r="G8" s="1" t="str">
         <f aca="false">F8&amp;B8&amp;$G$1</f>
-        <v>document.getElementById("colimei").value =  config["colimei"]; </v>
+        <v>document.getElementById("colimei").value =  config["colimei"];</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="str">
         <f aca="false">$I$1&amp;B8</f>
@@ -1189,7 +1127,7 @@
       </c>
       <c r="K8" s="1" t="str">
         <f aca="false">J8&amp;B8&amp;$K$1</f>
-        <v>retour["colimei"] = document.getElementById("colimei").value; </v>
+        <v>retour["colimei"] = document.getElementById("colimei").value;</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7" t="str">
         <f aca="false">""""&amp;B9&amp;""" : """&amp;A9&amp;""","</f>
@@ -1216,10 +1154,10 @@
       </c>
       <c r="G9" s="1" t="str">
         <f aca="false">F9&amp;B9&amp;$G$1</f>
-        <v>document.getElementById("colcpu").value =  config["colcpu"]; </v>
+        <v>document.getElementById("colcpu").value =  config["colcpu"];</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1" t="str">
         <f aca="false">$I$1&amp;B9</f>
@@ -1231,7 +1169,7 @@
       </c>
       <c r="K9" s="1" t="str">
         <f aca="false">J9&amp;B9&amp;$K$1</f>
-        <v>retour["colcpu"] = document.getElementById("colcpu").value; </v>
+        <v>retour["colcpu"] = document.getElementById("colcpu").value;</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,10 +1177,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7" t="str">
         <f aca="false">""""&amp;B10&amp;""" : """&amp;A10&amp;""","</f>
@@ -1258,10 +1196,10 @@
       </c>
       <c r="G10" s="1" t="str">
         <f aca="false">F10&amp;B10&amp;$G$1</f>
-        <v>document.getElementById("colos").value =  config["colos"]; </v>
+        <v>document.getElementById("colos").value =  config["colos"];</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1" t="str">
         <f aca="false">$I$1&amp;B10</f>
@@ -1273,7 +1211,7 @@
       </c>
       <c r="K10" s="1" t="str">
         <f aca="false">J10&amp;B10&amp;$K$1</f>
-        <v>retour["colos"] = document.getElementById("colos").value; </v>
+        <v>retour["colos"] = document.getElementById("colos").value;</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1281,10 +1219,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7" t="str">
         <f aca="false">""""&amp;B11&amp;""" : """&amp;A11&amp;""","</f>
@@ -1300,10 +1238,10 @@
       </c>
       <c r="G11" s="1" t="str">
         <f aca="false">F11&amp;B11&amp;$G$1</f>
-        <v>document.getElementById("coltaillestockage").value =  config["coltaillestockage"]; </v>
+        <v>document.getElementById("coltaillestockage").value =  config["coltaillestockage"];</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1" t="str">
         <f aca="false">$I$1&amp;B11</f>
@@ -1315,7 +1253,7 @@
       </c>
       <c r="K11" s="1" t="str">
         <f aca="false">J11&amp;B11&amp;$K$1</f>
-        <v>retour["coltaillestockage"] = document.getElementById("coltaillestockage").value; </v>
+        <v>retour["coltaillestockage"] = document.getElementById("coltaillestockage").value;</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,10 +1261,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7" t="str">
         <f aca="false">""""&amp;B12&amp;""" : """&amp;A12&amp;""","</f>
@@ -1342,10 +1280,10 @@
       </c>
       <c r="G12" s="1" t="str">
         <f aca="false">F12&amp;B12&amp;$G$1</f>
-        <v>document.getElementById("coltailleram").value =  config["coltailleram"]; </v>
+        <v>document.getElementById("coltailleram").value =  config["coltailleram"];</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1" t="str">
         <f aca="false">$I$1&amp;B12</f>
@@ -1357,7 +1295,7 @@
       </c>
       <c r="K12" s="1" t="str">
         <f aca="false">J12&amp;B12&amp;$K$1</f>
-        <v>retour["coltailleram"] = document.getElementById("coltailleram").value; </v>
+        <v>retour["coltailleram"] = document.getElementById("coltailleram").value;</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,10 +1303,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7" t="str">
         <f aca="false">""""&amp;B13&amp;""" : """&amp;A13&amp;""","</f>
@@ -1384,10 +1322,10 @@
       </c>
       <c r="G13" s="1" t="str">
         <f aca="false">F13&amp;B13&amp;$G$1</f>
-        <v>document.getElementById("colbatterie").value =  config["colbatterie"]; </v>
+        <v>document.getElementById("colbatterie").value =  config["colbatterie"];</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I13" s="1" t="str">
         <f aca="false">$I$1&amp;B13</f>
@@ -1399,7 +1337,7 @@
       </c>
       <c r="K13" s="1" t="str">
         <f aca="false">J13&amp;B13&amp;$K$1</f>
-        <v>retour["colbatterie"] = document.getElementById("colbatterie").value; </v>
+        <v>retour["colbatterie"] = document.getElementById("colbatterie").value;</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,10 +1345,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7" t="str">
         <f aca="false">""""&amp;B14&amp;""" : """&amp;A14&amp;""","</f>
@@ -1418,7 +1356,7 @@
       </c>
       <c r="E14" s="1" t="str">
         <f aca="false">$E$1&amp;B14</f>
-        <v>document.getElementById("colecran </v>
+        <v>document.getElementById("colecran</v>
       </c>
       <c r="F14" s="1" t="str">
         <f aca="false">E14&amp;$F$1</f>
@@ -1426,14 +1364,14 @@
       </c>
       <c r="G14" s="1" t="str">
         <f aca="false">F14&amp;B14&amp;$G$1</f>
-        <v>document.getElementById("colecran ").value =  config["colecran "]; </v>
+        <v>document.getElementById("colecran ").value =  config["colecran "];</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I14" s="1" t="str">
         <f aca="false">$I$1&amp;B14</f>
-        <v>retour["colecran </v>
+        <v>retour["colecran</v>
       </c>
       <c r="J14" s="1" t="str">
         <f aca="false">I14&amp;$J$1</f>
@@ -1441,7 +1379,7 @@
       </c>
       <c r="K14" s="1" t="str">
         <f aca="false">J14&amp;B14&amp;$K$1</f>
-        <v>retour["colecran "] = document.getElementById("colecran ").value; </v>
+        <v>retour["colecran "] = document.getElementById("colecran ").value;</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,10 +1387,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7" t="str">
         <f aca="false">""""&amp;B15&amp;""" : """&amp;A15&amp;""","</f>
@@ -1468,10 +1406,10 @@
       </c>
       <c r="G15" s="1" t="str">
         <f aca="false">F15&amp;B15&amp;$G$1</f>
-        <v>document.getElementById("colecranresolution").value =  config["colecranresolution"]; </v>
+        <v>document.getElementById("colecranresolution").value =  config["colecranresolution"];</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I15" s="1" t="str">
         <f aca="false">$I$1&amp;B15</f>
@@ -1483,7 +1421,7 @@
       </c>
       <c r="K15" s="1" t="str">
         <f aca="false">J15&amp;B15&amp;$K$1</f>
-        <v>retour["colecranresolution"] = document.getElementById("colecranresolution").value; </v>
+        <v>retour["colecranresolution"] = document.getElementById("colecranresolution").value;</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,10 +1429,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7" t="str">
         <f aca="false">""""&amp;B16&amp;""" : """&amp;A16&amp;""","</f>
@@ -1510,10 +1448,10 @@
       </c>
       <c r="G16" s="1" t="str">
         <f aca="false">F16&amp;B16&amp;$G$1</f>
-        <v>document.getElementById("colchargeur").value =  config["colchargeur"]; </v>
+        <v>document.getElementById("colchargeur").value =  config["colchargeur"];</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I16" s="1" t="str">
         <f aca="false">$I$1&amp;B16</f>
@@ -1525,7 +1463,7 @@
       </c>
       <c r="K16" s="1" t="str">
         <f aca="false">J16&amp;B16&amp;$K$1</f>
-        <v>retour["colchargeur"] = document.getElementById("colchargeur").value; </v>
+        <v>retour["colchargeur"] = document.getElementById("colchargeur").value;</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,10 +1471,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7" t="str">
         <f aca="false">""""&amp;B17&amp;""" : """&amp;A17&amp;""","</f>
@@ -1552,10 +1490,10 @@
       </c>
       <c r="G17" s="1" t="str">
         <f aca="false">F17&amp;B17&amp;$G$1</f>
-        <v>document.getElementById("coloperateur").value =  config["coloperateur"]; </v>
+        <v>document.getElementById("coloperateur").value =  config["coloperateur"];</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1" t="str">
         <f aca="false">$I$1&amp;B17</f>
@@ -1567,7 +1505,7 @@
       </c>
       <c r="K17" s="1" t="str">
         <f aca="false">J17&amp;B17&amp;$K$1</f>
-        <v>retour["coloperateur"] = document.getElementById("coloperateur").value; </v>
+        <v>retour["coloperateur"] = document.getElementById("coloperateur").value;</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,10 +1513,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D18" s="7" t="str">
         <f aca="false">""""&amp;B18&amp;""" : """&amp;A18&amp;""","</f>
@@ -1594,10 +1532,10 @@
       </c>
       <c r="G18" s="1" t="str">
         <f aca="false">F18&amp;B18&amp;$G$1</f>
-        <v>document.getElementById("colstatut").value =  config["colstatut"]; </v>
+        <v>document.getElementById("colstatut").value =  config["colstatut"];</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1" t="str">
         <f aca="false">$I$1&amp;B18</f>
@@ -1609,7 +1547,7 @@
       </c>
       <c r="K18" s="1" t="str">
         <f aca="false">J18&amp;B18&amp;$K$1</f>
-        <v>retour["colstatut"] = document.getElementById("colstatut").value; </v>
+        <v>retour["colstatut"] = document.getElementById("colstatut").value;</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1617,10 +1555,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D19" s="7" t="str">
         <f aca="false">""""&amp;B19&amp;""" : """&amp;A19&amp;""","</f>
@@ -1636,10 +1574,10 @@
       </c>
       <c r="G19" s="1" t="str">
         <f aca="false">F19&amp;B19&amp;$G$1</f>
-        <v>document.getElementById("colremarque").value =  config["colremarque"]; </v>
+        <v>document.getElementById("colremarque").value =  config["colremarque"];</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I19" s="1" t="str">
         <f aca="false">$I$1&amp;B19</f>
@@ -1651,7 +1589,7 @@
       </c>
       <c r="K19" s="1" t="str">
         <f aca="false">J19&amp;B19&amp;$K$1</f>
-        <v>retour["colremarque"] = document.getElementById("colremarque").value; </v>
+        <v>retour["colremarque"] = document.getElementById("colremarque").value;</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,10 +1597,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D20" s="7" t="str">
         <f aca="false">""""&amp;B20&amp;""" : """&amp;A20&amp;""","</f>
@@ -1678,10 +1616,10 @@
       </c>
       <c r="G20" s="1" t="str">
         <f aca="false">F20&amp;B20&amp;$G$1</f>
-        <v>document.getElementById("colcouleur").value =  config["colcouleur"]; </v>
+        <v>document.getElementById("colcouleur").value =  config["colcouleur"];</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I20" s="1" t="str">
         <f aca="false">$I$1&amp;B20</f>
@@ -1693,7 +1631,7 @@
       </c>
       <c r="K20" s="1" t="str">
         <f aca="false">J20&amp;B20&amp;$K$1</f>
-        <v>retour["colcouleur"] = document.getElementById("colcouleur").value; </v>
+        <v>retour["colcouleur"] = document.getElementById("colcouleur").value;</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,10 +1639,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D21" s="7" t="str">
         <f aca="false">""""&amp;B21&amp;""" : """&amp;A21&amp;""","</f>
@@ -1720,10 +1658,10 @@
       </c>
       <c r="G21" s="1" t="str">
         <f aca="false">F21&amp;B21&amp;$G$1</f>
-        <v>document.getElementById("colgradeesthetique").value =  config["colgradeesthetique"]; </v>
+        <v>document.getElementById("colgradeesthetique").value =  config["colgradeesthetique"];</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I21" s="1" t="str">
         <f aca="false">$I$1&amp;B21</f>
@@ -1735,7 +1673,7 @@
       </c>
       <c r="K21" s="1" t="str">
         <f aca="false">J21&amp;B21&amp;$K$1</f>
-        <v>retour["colgradeesthetique"] = document.getElementById("colgradeesthetique").value; </v>
+        <v>retour["colgradeesthetique"] = document.getElementById("colgradeesthetique").value;</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,10 +1681,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7" t="str">
         <f aca="false">""""&amp;B22&amp;""" : """&amp;A22&amp;""","</f>
@@ -1762,10 +1700,10 @@
       </c>
       <c r="G22" s="1" t="str">
         <f aca="false">F22&amp;B22&amp;$G$1</f>
-        <v>document.getElementById("colcategorie").value =  config["colcategorie"]; </v>
+        <v>document.getElementById("colcategorie").value =  config["colcategorie"];</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I22" s="1" t="str">
         <f aca="false">$I$1&amp;B22</f>
@@ -1777,18 +1715,18 @@
       </c>
       <c r="K22" s="1" t="str">
         <f aca="false">J22&amp;B22&amp;$K$1</f>
-        <v>retour["colcategorie"] = document.getElementById("colcategorie").value; </v>
+        <v>retour["colcategorie"] = document.getElementById("colcategorie").value;</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D23" s="7" t="str">
         <f aca="false">""""&amp;B23&amp;""" : """&amp;A23&amp;""","</f>
@@ -1804,10 +1742,10 @@
       </c>
       <c r="G23" s="1" t="str">
         <f aca="false">F23&amp;B23&amp;$G$1</f>
-        <v>document.getElementById("colerreur").value =  config["colerreur"]; </v>
+        <v>document.getElementById("colerreur").value =  config["colerreur"];</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I23" s="1" t="str">
         <f aca="false">$I$1&amp;B23</f>
@@ -1819,7 +1757,7 @@
       </c>
       <c r="K23" s="1" t="str">
         <f aca="false">J23&amp;B23&amp;$K$1</f>
-        <v>retour["colerreur"] = document.getElementById("colerreur").value; </v>
+        <v>retour["colerreur"] = document.getElementById("colerreur").value;</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,29 +1770,29 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1" t="str">
         <f aca="false">VLOOKUP(A27,$A$2:$B$27,2,0)</f>
@@ -1875,7 +1813,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="str">
         <f aca="false">VLOOKUP(A28,$A$2:$B$27,2,0)</f>
@@ -1891,7 +1829,7 @@
       </c>
       <c r="G28" s="1" t="str">
         <f aca="false">F28&amp;$G$26</f>
-        <v>&lt;input id=" ligneentete" name=" ligneentete" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" ligneentete" name=" ligneentete" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,7 +1871,7 @@
       </c>
       <c r="G30" s="1" t="str">
         <f aca="false">F30&amp;$G$26</f>
-        <v>&lt;input id=" colnumlot" name=" colnumlot" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colnumlot" name=" colnumlot" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1975,7 +1913,7 @@
       </c>
       <c r="G32" s="1" t="str">
         <f aca="false">F32&amp;$G$26</f>
-        <v>&lt;input id=" colidentifiantunique" name=" colidentifiantunique" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colidentifiantunique" name=" colidentifiantunique" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,7 +1955,7 @@
       </c>
       <c r="G34" s="1" t="str">
         <f aca="false">F34&amp;$G$26</f>
-        <v>&lt;input id=" coltypemateriel" name=" coltypemateriel" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" coltypemateriel" name=" coltypemateriel" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,7 +1997,7 @@
       </c>
       <c r="G36" s="1" t="str">
         <f aca="false">F36&amp;$G$26</f>
-        <v>&lt;input id=" colconstructeur" name=" colconstructeur" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colconstructeur" name=" colconstructeur" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,7 +2039,7 @@
       </c>
       <c r="G38" s="1" t="str">
         <f aca="false">F38&amp;$G$26</f>
-        <v>&lt;input id=" colmodel" name=" colmodel" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colmodel" name=" colmodel" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,7 +2081,7 @@
       </c>
       <c r="G40" s="1" t="str">
         <f aca="false">F40&amp;$G$26</f>
-        <v>&lt;input id=" colimei" name=" colimei" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colimei" name=" colimei" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,7 +2123,7 @@
       </c>
       <c r="G42" s="1" t="str">
         <f aca="false">F42&amp;$G$26</f>
-        <v>&lt;input id=" colcpu" name=" colcpu" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colcpu" name=" colcpu" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,7 +2165,7 @@
       </c>
       <c r="G44" s="1" t="str">
         <f aca="false">F44&amp;$G$26</f>
-        <v>&lt;input id=" colos" name=" colos" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colos" name=" colos" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,7 +2207,7 @@
       </c>
       <c r="G46" s="1" t="str">
         <f aca="false">F46&amp;$G$26</f>
-        <v>&lt;input id=" coltaillestockage" name=" coltaillestockage" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" coltaillestockage" name=" coltaillestockage" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,7 +2249,7 @@
       </c>
       <c r="G48" s="1" t="str">
         <f aca="false">F48&amp;$G$26</f>
-        <v>&lt;input id=" coltailleram" name=" coltailleram" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" coltailleram" name=" coltailleram" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,7 +2291,7 @@
       </c>
       <c r="G50" s="1" t="str">
         <f aca="false">F50&amp;$G$26</f>
-        <v>&lt;input id=" colbatterie" name=" colbatterie" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colbatterie" name=" colbatterie" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2362,11 +2300,11 @@
       </c>
       <c r="B51" s="1" t="str">
         <f aca="false">VLOOKUP(A51,$A$2:$B$27,2,0)</f>
-        <v>colecran </v>
+        <v>colecran</v>
       </c>
       <c r="E51" s="1" t="str">
         <f aca="false">$E$25&amp;B51</f>
-        <v>&lt;p&gt;&lt;label for="colecran </v>
+        <v>&lt;p&gt;&lt;label for="colecran</v>
       </c>
       <c r="F51" s="1" t="str">
         <f aca="false">E51&amp;F$25&amp;A51</f>
@@ -2383,19 +2321,19 @@
       </c>
       <c r="B52" s="1" t="str">
         <f aca="false">VLOOKUP(A52,$A$2:$B$27,2,0)</f>
-        <v>colecran </v>
+        <v>colecran</v>
       </c>
       <c r="E52" s="1" t="str">
         <f aca="false">$E$26&amp;B52</f>
-        <v>&lt;input id=" colecran </v>
+        <v>&lt;input id=" colecran</v>
       </c>
       <c r="F52" s="1" t="str">
         <f aca="false">E52&amp;$F$26&amp;B52</f>
-        <v>&lt;input id=" colecran " name=" colecran </v>
+        <v>&lt;input id=" colecran " name=" colecran</v>
       </c>
       <c r="G52" s="1" t="str">
         <f aca="false">F52&amp;$G$26</f>
-        <v>&lt;input id=" colecran " name=" colecran " type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colecran " name=" colecran " type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,7 +2375,7 @@
       </c>
       <c r="G54" s="1" t="str">
         <f aca="false">F54&amp;$G$26</f>
-        <v>&lt;input id=" colecranresolution" name=" colecranresolution" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colecranresolution" name=" colecranresolution" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2479,7 +2417,7 @@
       </c>
       <c r="G56" s="1" t="str">
         <f aca="false">F56&amp;$G$26</f>
-        <v>&lt;input id=" colchargeur" name=" colchargeur" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colchargeur" name=" colchargeur" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,7 +2459,7 @@
       </c>
       <c r="G58" s="1" t="str">
         <f aca="false">F58&amp;$G$26</f>
-        <v>&lt;input id=" coloperateur" name=" coloperateur" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" coloperateur" name=" coloperateur" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,7 +2501,7 @@
       </c>
       <c r="G60" s="1" t="str">
         <f aca="false">F60&amp;$G$26</f>
-        <v>&lt;input id=" colstatut" name=" colstatut" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colstatut" name=" colstatut" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,7 +2543,7 @@
       </c>
       <c r="G62" s="1" t="str">
         <f aca="false">F62&amp;$G$26</f>
-        <v>&lt;input id=" colremarque" name=" colremarque" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colremarque" name=" colremarque" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,7 +2585,7 @@
       </c>
       <c r="G64" s="1" t="str">
         <f aca="false">F64&amp;$G$26</f>
-        <v>&lt;input id=" colcouleur" name=" colcouleur" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colcouleur" name=" colcouleur" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2689,7 +2627,7 @@
       </c>
       <c r="G66" s="1" t="str">
         <f aca="false">F66&amp;$G$26</f>
-        <v>&lt;input id=" colgradeesthetique" name=" colgradeesthetique" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colgradeesthetique" name=" colgradeesthetique" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2731,12 +2669,12 @@
       </c>
       <c r="G68" s="1" t="str">
         <f aca="false">F68&amp;$G$26</f>
-        <v>&lt;input id=" colcategorie" name=" colcategorie" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colcategorie" name=" colcategorie" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1" t="str">
         <f aca="false">VLOOKUP(A69,$A$2:$B$27,2,0)</f>
@@ -2757,7 +2695,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1" t="str">
         <f aca="false">VLOOKUP(A70,$A$2:$B$27,2,0)</f>
@@ -2773,7 +2711,7 @@
       </c>
       <c r="G70" s="1" t="str">
         <f aca="false">F70&amp;$G$26</f>
-        <v>&lt;input id=" colerreur" name=" colerreur" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt; </v>
+        <v>&lt;input id=" colerreur" name=" colerreur" type="text" class="colinputcollection" size="2" pattern="[a-zA-Z]{1,2}" maxlength="2"&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,222 +2764,222 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
